--- a/nice_2021.xlsx
+++ b/nice_2021.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="141">
   <si>
     <t>region</t>
   </si>
@@ -125,6 +125,15 @@
   </si>
   <si>
     <t>okrug</t>
+  </si>
+  <si>
+    <t>educ</t>
+  </si>
+  <si>
+    <t>fin_share</t>
+  </si>
+  <si>
+    <t>cev_share</t>
   </si>
   <si>
     <t>Республика Адыгея</t>
@@ -785,13 +794,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK79"/>
+  <dimension ref="A1:AN79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -903,10 +912,19 @@
       <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:40">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>2021</v>
@@ -966,7 +984,7 @@
         <v>0.3051567014191363</v>
       </c>
       <c r="U2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="V2">
         <v>885.2147246084423</v>
@@ -975,12 +993,21 @@
         <v>35.29297681101408</v>
       </c>
       <c r="AK2" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="AL2">
+        <v>13.24094818259297</v>
+      </c>
+      <c r="AM2">
+        <v>0.08229537366548041</v>
+      </c>
+      <c r="AN2">
+        <v>0.04314946619217083</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:40">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B3">
         <v>2021</v>
@@ -1040,7 +1067,7 @@
         <v>0.4274060024767152</v>
       </c>
       <c r="U3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="V3">
         <v>681.5071577470607</v>
@@ -1049,12 +1076,21 @@
         <v>30.8401464079112</v>
       </c>
       <c r="AK3" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="AL3">
+        <v>12.60694489574638</v>
+      </c>
+      <c r="AM3">
+        <v>0.08420831583368329</v>
+      </c>
+      <c r="AN3">
+        <v>0.02645947081058378</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:40">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>2021</v>
@@ -1114,7 +1150,7 @@
         <v>0.6606106944654471</v>
       </c>
       <c r="U4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="V4">
         <v>877.7239781230726</v>
@@ -1141,12 +1177,21 @@
         <v>14.54</v>
       </c>
       <c r="AK4" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="AL4">
+        <v>12.8355867163614</v>
+      </c>
+      <c r="AM4">
+        <v>0.03473253135398004</v>
+      </c>
+      <c r="AN4">
+        <v>0.04197594061940108</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:40">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>2021</v>
@@ -1206,7 +1251,7 @@
         <v>0.9715148688950848</v>
       </c>
       <c r="U5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V5">
         <v>806.5747899990669</v>
@@ -1233,12 +1278,21 @@
         <v>12.97</v>
       </c>
       <c r="AK5" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL5">
+        <v>12.78455191495292</v>
+      </c>
+      <c r="AM5">
+        <v>0.02660303878009982</v>
+      </c>
+      <c r="AN5">
+        <v>0.03817673194010202</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:40">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B6">
         <v>2021</v>
@@ -1298,7 +1352,7 @@
         <v>0.5862760712704187</v>
       </c>
       <c r="U6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="V6">
         <v>902.1706065536985</v>
@@ -1307,12 +1361,21 @@
         <v>30.95477510910942</v>
       </c>
       <c r="AK6" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL6">
+        <v>13.02701265437001</v>
+      </c>
+      <c r="AM6">
+        <v>0.05477759472817133</v>
+      </c>
+      <c r="AN6">
+        <v>0.05154153918569075</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:40">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B7">
         <v>2021</v>
@@ -1372,7 +1435,7 @@
         <v>0.4198862911981394</v>
       </c>
       <c r="U7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="V7">
         <v>969.4393414929363</v>
@@ -1381,12 +1444,21 @@
         <v>38.21495949232932</v>
       </c>
       <c r="AK7" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="AL7">
+        <v>13.13503849630394</v>
+      </c>
+      <c r="AM7">
+        <v>0.07673357003115713</v>
+      </c>
+      <c r="AN7">
+        <v>0.0586913991739729</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:40">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>2021</v>
@@ -1446,7 +1518,7 @@
         <v>0.1406579211855359</v>
       </c>
       <c r="U8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="V8">
         <v>950.9576673733877</v>
@@ -1473,12 +1545,21 @@
         <v>14.02</v>
       </c>
       <c r="AK8" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL8">
+        <v>13.21685500829947</v>
+      </c>
+      <c r="AM8">
+        <v>0.04914468791120775</v>
+      </c>
+      <c r="AN8">
+        <v>0.05444628792646417</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:40">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>2021</v>
@@ -1538,7 +1619,7 @@
         <v>0.2191553221469036</v>
       </c>
       <c r="U9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="V9">
         <v>1112.575408215309</v>
@@ -1547,12 +1628,21 @@
         <v>31.91398181681971</v>
       </c>
       <c r="AK9" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL9">
+        <v>13.27148810808789</v>
+      </c>
+      <c r="AM9">
+        <v>0.04969076562166772</v>
+      </c>
+      <c r="AN9">
+        <v>0.04435913840904244</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:40">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B10">
         <v>2021</v>
@@ -1612,7 +1702,7 @@
         <v>0.08185119907369653</v>
       </c>
       <c r="U10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="V10">
         <v>1037.987558936807</v>
@@ -1621,12 +1711,21 @@
         <v>39.61634968311312</v>
       </c>
       <c r="AK10" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL10">
+        <v>13.07872625743457</v>
+      </c>
+      <c r="AM10">
+        <v>0.07182087029995776</v>
+      </c>
+      <c r="AN10">
+        <v>0.056822982678496</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:40">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B11">
         <v>2021</v>
@@ -1686,7 +1785,7 @@
         <v>0.9264140029873289</v>
       </c>
       <c r="U11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="V11">
         <v>834.8478955138251</v>
@@ -1695,12 +1794,21 @@
         <v>33.90971123296316</v>
       </c>
       <c r="AK11" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL11">
+        <v>12.99300031964529</v>
+      </c>
+      <c r="AM11">
+        <v>0.04318728935965335</v>
+      </c>
+      <c r="AN11">
+        <v>0.02469908521906596</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:40">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B12">
         <v>2021</v>
@@ -1760,7 +1868,7 @@
         <v>0.1970291056626081</v>
       </c>
       <c r="U12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="V12">
         <v>1007.780268118372</v>
@@ -1769,12 +1877,21 @@
         <v>35.85902036408525</v>
       </c>
       <c r="AK12" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL12">
+        <v>12.98918555731027</v>
+      </c>
+      <c r="AM12">
+        <v>0.05908419497784341</v>
+      </c>
+      <c r="AN12">
+        <v>0.05619153126538649</v>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:40">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B13">
         <v>2021</v>
@@ -1834,7 +1951,7 @@
         <v>0.1620440239694574</v>
       </c>
       <c r="U13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="V13">
         <v>985.4286351362261</v>
@@ -1861,12 +1978,21 @@
         <v>13.73</v>
       </c>
       <c r="AK13" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="AL13">
+        <v>13.11147999107623</v>
+      </c>
+      <c r="AM13">
+        <v>0.06180427327881823</v>
+      </c>
+      <c r="AN13">
+        <v>0.03131099973621734</v>
       </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:40">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B14">
         <v>2021</v>
@@ -1926,7 +2052,7 @@
         <v>0.3959149853770896</v>
       </c>
       <c r="U14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="V14">
         <v>1035.739073431157</v>
@@ -1953,12 +2079,21 @@
         <v>8.51</v>
       </c>
       <c r="AK14" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL14">
+        <v>12.93816551461258</v>
+      </c>
+      <c r="AM14">
+        <v>0.06430379746835443</v>
+      </c>
+      <c r="AN14">
+        <v>0.03324894514767933</v>
       </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:40">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <v>2021</v>
@@ -2018,7 +2153,7 @@
         <v>0.1018267336552015</v>
       </c>
       <c r="U15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="V15">
         <v>940.8126555214708</v>
@@ -2045,12 +2180,21 @@
         <v>12.16</v>
       </c>
       <c r="AK15" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL15">
+        <v>13.08935960682743</v>
+      </c>
+      <c r="AM15">
+        <v>0.05106253383865729</v>
+      </c>
+      <c r="AN15">
+        <v>0.0450730914997293</v>
       </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:40">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B16">
         <v>2021</v>
@@ -2110,7 +2254,7 @@
         <v>0.7511074341135782</v>
       </c>
       <c r="U16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V16">
         <v>831.8919512799332</v>
@@ -2119,12 +2263,21 @@
         <v>30.78010417453904</v>
       </c>
       <c r="AK16" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL16">
+        <v>12.72538391923812</v>
+      </c>
+      <c r="AM16">
+        <v>0.03039422208847427</v>
+      </c>
+      <c r="AN16">
+        <v>0.04032500752332231</v>
       </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:40">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B17">
         <v>2021</v>
@@ -2184,7 +2337,7 @@
         <v>1.055886756083481</v>
       </c>
       <c r="U17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="V17">
         <v>964.5245512813055</v>
@@ -2211,12 +2364,21 @@
         <v>13.15</v>
       </c>
       <c r="AK17" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL17">
+        <v>12.34122717384088</v>
+      </c>
+      <c r="AM17">
+        <v>0.03243193439904179</v>
+      </c>
+      <c r="AN17">
+        <v>0.04252084581010734</v>
       </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:40">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B18">
         <v>2021</v>
@@ -2276,7 +2438,7 @@
         <v>0.1681640656692451</v>
       </c>
       <c r="U18" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="V18">
         <v>966.6348903162572</v>
@@ -2285,12 +2447,21 @@
         <v>32.86987601186653</v>
       </c>
       <c r="AK18" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL18">
+        <v>12.91376337023803</v>
+      </c>
+      <c r="AM18">
+        <v>0.04981763925729444</v>
+      </c>
+      <c r="AN18">
+        <v>0.05180702917771884</v>
       </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:40">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B19">
         <v>2021</v>
@@ -2350,7 +2521,7 @@
         <v>0.4383772751519501</v>
       </c>
       <c r="U19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="V19">
         <v>932.8244363186359</v>
@@ -2359,12 +2530,21 @@
         <v>33.88382119201072</v>
       </c>
       <c r="AK19" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="AL19">
+        <v>12.76125361877937</v>
+      </c>
+      <c r="AM19">
+        <v>0.0365063638442192</v>
+      </c>
+      <c r="AN19">
+        <v>0.04359423824403629</v>
       </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:40">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B20">
         <v>2021</v>
@@ -2424,7 +2604,7 @@
         <v>0.2807862521179061</v>
       </c>
       <c r="U20" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V20">
         <v>1050.048609001441</v>
@@ -2433,12 +2613,21 @@
         <v>37.51438762819962</v>
       </c>
       <c r="AK20" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL20">
+        <v>12.97286167171574</v>
+      </c>
+      <c r="AM20">
+        <v>0.05237772251111615</v>
+      </c>
+      <c r="AN20">
+        <v>0.04092245082523176</v>
       </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:40">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B21">
         <v>2021</v>
@@ -2498,7 +2687,7 @@
         <v>0.2779353784409295</v>
       </c>
       <c r="U21" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="V21">
         <v>667.0582337524729</v>
@@ -2525,12 +2714,21 @@
         <v>16.18</v>
       </c>
       <c r="AK21" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="AL21">
+        <v>13.21849495773827</v>
+      </c>
+      <c r="AM21">
+        <v>0.06258503401360543</v>
+      </c>
+      <c r="AN21">
+        <v>0.03639455782312925</v>
       </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:40">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B22">
         <v>2021</v>
@@ -2590,7 +2788,7 @@
         <v>0.08209320547635457</v>
       </c>
       <c r="U22" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V22">
         <v>926.1025227000475</v>
@@ -2617,12 +2815,21 @@
         <v>12.49</v>
       </c>
       <c r="AK22" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL22">
+        <v>13.09941284532163</v>
+      </c>
+      <c r="AM22">
+        <v>0.04598709354050498</v>
+      </c>
+      <c r="AN22">
+        <v>0.08733788609736233</v>
       </c>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:40">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B23">
         <v>2021</v>
@@ -2682,7 +2889,7 @@
         <v>0.6026775600095533</v>
       </c>
       <c r="U23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V23">
         <v>974.5513220749024</v>
@@ -2691,12 +2898,21 @@
         <v>30.05341845296699</v>
       </c>
       <c r="AK23" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL23">
+        <v>13.25371652471841</v>
+      </c>
+      <c r="AM23">
+        <v>0.05500084616686409</v>
+      </c>
+      <c r="AN23">
+        <v>0.05940091386021324</v>
       </c>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:40">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B24">
         <v>2021</v>
@@ -2756,7 +2972,7 @@
         <v>0.2436736195308384</v>
       </c>
       <c r="U24" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="V24">
         <v>898.104309079583</v>
@@ -2783,12 +2999,21 @@
         <v>12.12</v>
       </c>
       <c r="AK24" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL24">
+        <v>12.90244976982408</v>
+      </c>
+      <c r="AM24">
+        <v>0.03591806876371616</v>
+      </c>
+      <c r="AN24">
+        <v>0.03957571324067299</v>
       </c>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:40">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B25">
         <v>2021</v>
@@ -2848,7 +3073,7 @@
         <v>0.3392299968714241</v>
       </c>
       <c r="U25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="V25">
         <v>901.5948613652168</v>
@@ -2857,12 +3082,21 @@
         <v>32.12360538216141</v>
       </c>
       <c r="AK25" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="AL25">
+        <v>12.96643534694065</v>
+      </c>
+      <c r="AM25">
+        <v>0.02823739225205588</v>
+      </c>
+      <c r="AN25">
+        <v>0.04920241751709103</v>
       </c>
     </row>
-    <row r="26" spans="1:37">
+    <row r="26" spans="1:40">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B26">
         <v>2021</v>
@@ -2922,7 +3156,7 @@
         <v>0.3081433676634333</v>
       </c>
       <c r="U26" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V26">
         <v>936.5779685182706</v>
@@ -2931,12 +3165,21 @@
         <v>31.69189581015292</v>
       </c>
       <c r="AK26" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL26">
+        <v>12.89031586725089</v>
+      </c>
+      <c r="AM26">
+        <v>0.04549753073447517</v>
+      </c>
+      <c r="AN26">
+        <v>0.04460439214038039</v>
       </c>
     </row>
-    <row r="27" spans="1:37">
+    <row r="27" spans="1:40">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B27">
         <v>2021</v>
@@ -2996,7 +3239,7 @@
         <v>0.1745033190480854</v>
       </c>
       <c r="U27" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="V27">
         <v>927.2638486908999</v>
@@ -3005,12 +3248,21 @@
         <v>31.44803718013177</v>
       </c>
       <c r="AK27" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL27">
+        <v>13.12486479094049</v>
+      </c>
+      <c r="AM27">
+        <v>0.04745108478637027</v>
+      </c>
+      <c r="AN27">
+        <v>0.04831625183016104</v>
       </c>
     </row>
-    <row r="28" spans="1:37">
+    <row r="28" spans="1:40">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B28">
         <v>2021</v>
@@ -3070,7 +3322,7 @@
         <v>0.4441217738934995</v>
       </c>
       <c r="U28" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="V28">
         <v>1007.478066183913</v>
@@ -3079,12 +3331,21 @@
         <v>33.0191943615796</v>
       </c>
       <c r="AK28" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL28">
+        <v>13.02029316242976</v>
+      </c>
+      <c r="AM28">
+        <v>0.05399350285650277</v>
+      </c>
+      <c r="AN28">
+        <v>0.04917665509129609</v>
       </c>
     </row>
-    <row r="29" spans="1:37">
+    <row r="29" spans="1:40">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B29">
         <v>2021</v>
@@ -3144,7 +3405,7 @@
         <v>0.03585146133129058</v>
       </c>
       <c r="U29" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="V29">
         <v>982.3360743375199</v>
@@ -3171,12 +3432,21 @@
         <v>14.19</v>
       </c>
       <c r="AK29" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="AL29">
+        <v>12.91302763073618</v>
+      </c>
+      <c r="AM29">
+        <v>0.06480948543801081</v>
+      </c>
+      <c r="AN29">
+        <v>0.04671092181164704</v>
       </c>
     </row>
-    <row r="30" spans="1:37">
+    <row r="30" spans="1:40">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B30">
         <v>2021</v>
@@ -3236,7 +3506,7 @@
         <v>0.4567451113603767</v>
       </c>
       <c r="U30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="V30">
         <v>881.1615172482806</v>
@@ -3263,12 +3533,21 @@
         <v>17.36</v>
       </c>
       <c r="AK30" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="AL30">
+        <v>12.8723052182986</v>
+      </c>
+      <c r="AM30">
+        <v>0.03848852786697005</v>
+      </c>
+      <c r="AN30">
+        <v>0.06600463563484811</v>
       </c>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:40">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B31">
         <v>2021</v>
@@ -3328,7 +3607,7 @@
         <v>0.01040882649938624</v>
       </c>
       <c r="U31" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="V31">
         <v>799.4605281673574</v>
@@ -3337,12 +3616,21 @@
         <v>44.82137477784473</v>
       </c>
       <c r="AK31" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="AL31">
+        <v>13.06056493426929</v>
+      </c>
+      <c r="AM31">
+        <v>0.05171997877165053</v>
+      </c>
+      <c r="AN31">
+        <v>0.046461137646548</v>
       </c>
     </row>
-    <row r="32" spans="1:37">
+    <row r="32" spans="1:40">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B32">
         <v>2021</v>
@@ -3402,7 +3690,7 @@
         <v>0.6583825642886723</v>
       </c>
       <c r="U32" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="V32">
         <v>954.0018578136234</v>
@@ -3411,12 +3699,21 @@
         <v>36.39011406498275</v>
       </c>
       <c r="AK32" t="s">
-        <v>137</v>
+        <v>140</v>
+      </c>
+      <c r="AL32">
+        <v>12.67088782808262</v>
+      </c>
+      <c r="AM32">
+        <v>0.04571622079241448</v>
+      </c>
+      <c r="AN32">
+        <v>0.08066373179817134</v>
       </c>
     </row>
-    <row r="33" spans="1:37">
+    <row r="33" spans="1:40">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B33">
         <v>2021</v>
@@ -3476,7 +3773,7 @@
         <v>0.2052107733874635</v>
       </c>
       <c r="U33" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="V33">
         <v>1020.330287730409</v>
@@ -3485,12 +3782,21 @@
         <v>33.57628611925528</v>
       </c>
       <c r="AK33" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL33">
+        <v>13.32496718360562</v>
+      </c>
+      <c r="AM33">
+        <v>0.0596838528586202</v>
+      </c>
+      <c r="AN33">
+        <v>0.04018318806322944</v>
       </c>
     </row>
-    <row r="34" spans="1:37">
+    <row r="34" spans="1:40">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B34">
         <v>2021</v>
@@ -3550,7 +3856,7 @@
         <v>0.07189758320659223</v>
       </c>
       <c r="U34" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="V34">
         <v>971.1223361744401</v>
@@ -3559,12 +3865,21 @@
         <v>36.06958909645952</v>
       </c>
       <c r="AK34" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL34">
+        <v>13.18480338154458</v>
+      </c>
+      <c r="AM34">
+        <v>0.03465967813376641</v>
+      </c>
+      <c r="AN34">
+        <v>0.05126974752694521</v>
       </c>
     </row>
-    <row r="35" spans="1:37">
+    <row r="35" spans="1:40">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B35">
         <v>2021</v>
@@ -3624,7 +3939,7 @@
         <v>0.2856958308112496</v>
       </c>
       <c r="U35" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="V35">
         <v>949.0741439197336</v>
@@ -3651,12 +3966,21 @@
         <v>14.11</v>
       </c>
       <c r="AK35" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL35">
+        <v>13.19469614195776</v>
+      </c>
+      <c r="AM35">
+        <v>0.05063872102807312</v>
+      </c>
+      <c r="AN35">
+        <v>0.05637573625028684</v>
       </c>
     </row>
-    <row r="36" spans="1:37">
+    <row r="36" spans="1:40">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B36">
         <v>2021</v>
@@ -3716,7 +4040,7 @@
         <v>0.2287036751776128</v>
       </c>
       <c r="U36" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V36">
         <v>909.9643725317698</v>
@@ -3725,12 +4049,21 @@
         <v>28.20186179359472</v>
       </c>
       <c r="AK36" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL36">
+        <v>13.53266640244033</v>
+      </c>
+      <c r="AM36">
+        <v>0.06049960967993757</v>
+      </c>
+      <c r="AN36">
+        <v>0.07962529274004687</v>
       </c>
     </row>
-    <row r="37" spans="1:37">
+    <row r="37" spans="1:40">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B37">
         <v>2021</v>
@@ -3790,7 +4123,7 @@
         <v>0.3152308103406227</v>
       </c>
       <c r="U37" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="V37">
         <v>810.9920263355294</v>
@@ -3799,12 +4132,21 @@
         <v>35.64050008776445</v>
       </c>
       <c r="AK37" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL37">
+        <v>12.91878331942909</v>
+      </c>
+      <c r="AM37">
+        <v>0.06073667711598744</v>
+      </c>
+      <c r="AN37">
+        <v>0.03983803552769069</v>
       </c>
     </row>
-    <row r="38" spans="1:37">
+    <row r="38" spans="1:40">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B38">
         <v>2021</v>
@@ -3864,7 +4206,7 @@
         <v>0.3942823105042095</v>
       </c>
       <c r="U38" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="V38">
         <v>1083.214209674316</v>
@@ -3873,12 +4215,21 @@
         <v>41.42927572153149</v>
       </c>
       <c r="AK38" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL38">
+        <v>13.13288173008548</v>
+      </c>
+      <c r="AM38">
+        <v>0.1047697175670924</v>
+      </c>
+      <c r="AN38">
+        <v>0.07652642681354738</v>
       </c>
     </row>
-    <row r="39" spans="1:37">
+    <row r="39" spans="1:40">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B39">
         <v>2021</v>
@@ -3938,7 +4289,7 @@
         <v>0.1287108637325076</v>
       </c>
       <c r="U39" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="V39">
         <v>952.0019900556421</v>
@@ -3980,12 +4331,21 @@
         <v>12.35</v>
       </c>
       <c r="AK39" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL39">
+        <v>13.83364980273423</v>
+      </c>
+      <c r="AM39">
+        <v>0.08183806525312752</v>
+      </c>
+      <c r="AN39">
+        <v>0.05285447605249226</v>
       </c>
     </row>
-    <row r="40" spans="1:37">
+    <row r="40" spans="1:40">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B40">
         <v>2021</v>
@@ -4045,7 +4405,7 @@
         <v>0.07091189609593584</v>
       </c>
       <c r="U40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="V40">
         <v>1040.842204956394</v>
@@ -4054,12 +4414,21 @@
         <v>29.90044576250168</v>
       </c>
       <c r="AK40" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL40">
+        <v>13.46677100782089</v>
+      </c>
+      <c r="AM40">
+        <v>0.05753591759284359</v>
+      </c>
+      <c r="AN40">
+        <v>0.06980211439414476</v>
       </c>
     </row>
-    <row r="41" spans="1:37">
+    <row r="41" spans="1:40">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B41">
         <v>2021</v>
@@ -4119,7 +4488,7 @@
         <v>0.07777576376781781</v>
       </c>
       <c r="U41" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V41">
         <v>925.0253714059504</v>
@@ -4146,12 +4515,21 @@
         <v>2.31</v>
       </c>
       <c r="AK41" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL41">
+        <v>13.16772992553632</v>
+      </c>
+      <c r="AM41">
+        <v>0.03720238095238095</v>
+      </c>
+      <c r="AN41">
+        <v>0.05720899470899469</v>
       </c>
     </row>
-    <row r="42" spans="1:37">
+    <row r="42" spans="1:40">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B42">
         <v>2021</v>
@@ -4211,7 +4589,7 @@
         <v>1.314607149297117</v>
       </c>
       <c r="U42" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="V42">
         <v>786.2021636197063</v>
@@ -4220,12 +4598,21 @@
         <v>26.51342169078052</v>
       </c>
       <c r="AK42" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL42">
+        <v>13.14664586638931</v>
+      </c>
+      <c r="AM42">
+        <v>0.2570422535211269</v>
+      </c>
+      <c r="AN42">
+        <v>0.09154929577464789</v>
       </c>
     </row>
-    <row r="43" spans="1:37">
+    <row r="43" spans="1:40">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B43">
         <v>2021</v>
@@ -4285,7 +4672,7 @@
         <v>0.0593114652576503</v>
       </c>
       <c r="U43" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="V43">
         <v>1040.267863350441</v>
@@ -4294,12 +4681,21 @@
         <v>29.6172260450319</v>
       </c>
       <c r="AK43" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL43">
+        <v>13.20817249977799</v>
+      </c>
+      <c r="AM43">
+        <v>0.06491487786824574</v>
+      </c>
+      <c r="AN43">
+        <v>0.06025166543301256</v>
       </c>
     </row>
-    <row r="44" spans="1:37">
+    <row r="44" spans="1:40">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B44">
         <v>2021</v>
@@ -4359,7 +4755,7 @@
         <v>0.6124377703647497</v>
       </c>
       <c r="U44" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="V44">
         <v>972.237350922784</v>
@@ -4368,12 +4764,21 @@
         <v>32.41617720071545</v>
       </c>
       <c r="AK44" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL44">
+        <v>12.83622004282634</v>
+      </c>
+      <c r="AM44">
+        <v>0.0543744120413923</v>
+      </c>
+      <c r="AN44">
+        <v>0.05089369708372532</v>
       </c>
     </row>
-    <row r="45" spans="1:37">
+    <row r="45" spans="1:40">
       <c r="A45" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B45">
         <v>2021</v>
@@ -4433,7 +4838,7 @@
         <v>0.3136876687774901</v>
       </c>
       <c r="U45" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="V45">
         <v>877.2600650483197</v>
@@ -4442,12 +4847,21 @@
         <v>34.57147308088278</v>
       </c>
       <c r="AK45" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="AL45">
+        <v>12.97390565067998</v>
+      </c>
+      <c r="AM45">
+        <v>0.04814583647203151</v>
+      </c>
+      <c r="AN45">
+        <v>0.03258506768826808</v>
       </c>
     </row>
-    <row r="46" spans="1:37">
+    <row r="46" spans="1:40">
       <c r="A46" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B46">
         <v>2021</v>
@@ -4507,7 +4921,7 @@
         <v>0.7336148658839221</v>
       </c>
       <c r="U46" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="V46">
         <v>879.6369308802344</v>
@@ -4516,12 +4930,21 @@
         <v>35.63414290220037</v>
       </c>
       <c r="AK46" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="AL46">
+        <v>12.78676225618278</v>
+      </c>
+      <c r="AM46">
+        <v>0.06807974816369358</v>
+      </c>
+      <c r="AN46">
+        <v>0.06413431269674708</v>
       </c>
     </row>
-    <row r="47" spans="1:37">
+    <row r="47" spans="1:40">
       <c r="A47" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B47">
         <v>2021</v>
@@ -4581,7 +5004,7 @@
         <v>0.06910990811161355</v>
       </c>
       <c r="U47" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="V47">
         <v>976.652659207925</v>
@@ -4590,12 +5013,21 @@
         <v>34.6083542131258</v>
       </c>
       <c r="AK47" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL47">
+        <v>13.06577825331251</v>
+      </c>
+      <c r="AM47">
+        <v>0.05038216815398775</v>
+      </c>
+      <c r="AN47">
+        <v>0.05806554884149027</v>
       </c>
     </row>
-    <row r="48" spans="1:37">
+    <row r="48" spans="1:40">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B48">
         <v>2021</v>
@@ -4655,7 +5087,7 @@
         <v>1.605826582817826E-12</v>
       </c>
       <c r="U48" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="V48">
         <v>881.8465376375939</v>
@@ -4664,12 +5096,21 @@
         <v>30.58982609055206</v>
       </c>
       <c r="AK48" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL48">
+        <v>13.2171501326431</v>
+      </c>
+      <c r="AM48">
+        <v>0.07152496626180839</v>
+      </c>
+      <c r="AN48">
+        <v>0.04686541528646793</v>
       </c>
     </row>
-    <row r="49" spans="1:37">
+    <row r="49" spans="1:40">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B49">
         <v>2021</v>
@@ -4729,7 +5170,7 @@
         <v>0.06834481132663939</v>
       </c>
       <c r="U49" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="V49">
         <v>868.2181619000559</v>
@@ -4738,12 +5179,21 @@
         <v>33.83352907138507</v>
       </c>
       <c r="AK49" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL49">
+        <v>13.1789733196424</v>
+      </c>
+      <c r="AM49">
+        <v>0.05300668151447661</v>
+      </c>
+      <c r="AN49">
+        <v>0.04988864142538975</v>
       </c>
     </row>
-    <row r="50" spans="1:37">
+    <row r="50" spans="1:40">
       <c r="A50" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B50">
         <v>2021</v>
@@ -4803,7 +5253,7 @@
         <v>0.2173373196936694</v>
       </c>
       <c r="U50" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V50">
         <v>778.1933949588725</v>
@@ -4830,12 +5280,21 @@
         <v>13.36</v>
       </c>
       <c r="AK50" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL50">
+        <v>12.86613565077955</v>
+      </c>
+      <c r="AM50">
+        <v>0.0473468985564369</v>
+      </c>
+      <c r="AN50">
+        <v>0.06892644233137903</v>
       </c>
     </row>
-    <row r="51" spans="1:37">
+    <row r="51" spans="1:40">
       <c r="A51" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B51">
         <v>2021</v>
@@ -4895,7 +5354,7 @@
         <v>0.2962074427418031</v>
       </c>
       <c r="U51" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="V51">
         <v>902.8379045411192</v>
@@ -4904,12 +5363,21 @@
         <v>28.49131904821792</v>
       </c>
       <c r="AK51" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL51">
+        <v>13.00310720558697</v>
+      </c>
+      <c r="AM51">
+        <v>0.04695424240697475</v>
+      </c>
+      <c r="AN51">
+        <v>0.04672630919140692</v>
       </c>
     </row>
-    <row r="52" spans="1:37">
+    <row r="52" spans="1:40">
       <c r="A52" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B52">
         <v>2021</v>
@@ -4969,7 +5437,7 @@
         <v>0.2176272471635627</v>
       </c>
       <c r="U52" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="V52">
         <v>918.6247142845627</v>
@@ -4978,12 +5446,21 @@
         <v>39.50184588294168</v>
       </c>
       <c r="AK52" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL52">
+        <v>12.94185881888053</v>
+      </c>
+      <c r="AM52">
+        <v>0.04130356929688432</v>
+      </c>
+      <c r="AN52">
+        <v>0.0975289483108511</v>
       </c>
     </row>
-    <row r="53" spans="1:37">
+    <row r="53" spans="1:40">
       <c r="A53" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B53">
         <v>2021</v>
@@ -5043,7 +5520,7 @@
         <v>0.2600942591235054</v>
       </c>
       <c r="U53" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V53">
         <v>959.4452125680092</v>
@@ -5052,12 +5529,21 @@
         <v>31.55774584097041</v>
       </c>
       <c r="AK53" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="AL53">
+        <v>13.07210721615866</v>
+      </c>
+      <c r="AM53">
+        <v>0.05852608561959752</v>
+      </c>
+      <c r="AN53">
+        <v>0.0534353753117633</v>
       </c>
     </row>
-    <row r="54" spans="1:37">
+    <row r="54" spans="1:40">
       <c r="A54" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B54">
         <v>2021</v>
@@ -5117,7 +5603,7 @@
         <v>0.5686092794701381</v>
       </c>
       <c r="U54" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="V54">
         <v>867.3021943382219</v>
@@ -5126,12 +5612,21 @@
         <v>40.73517383117644</v>
       </c>
       <c r="AK54" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL54">
+        <v>13.20792734510704</v>
+      </c>
+      <c r="AM54">
+        <v>0.09310457873456453</v>
+      </c>
+      <c r="AN54">
+        <v>0.0741995410337668</v>
       </c>
     </row>
-    <row r="55" spans="1:37">
+    <row r="55" spans="1:40">
       <c r="A55" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B55">
         <v>2021</v>
@@ -5191,7 +5686,7 @@
         <v>0.2338256034454673</v>
       </c>
       <c r="U55" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="V55">
         <v>877.6018756720067</v>
@@ -5200,12 +5695,21 @@
         <v>30.3591741394273</v>
       </c>
       <c r="AK55" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL55">
+        <v>13.31483354949014</v>
+      </c>
+      <c r="AM55">
+        <v>0.08202402957486134</v>
+      </c>
+      <c r="AN55">
+        <v>0.06723659889094269</v>
       </c>
     </row>
-    <row r="56" spans="1:37">
+    <row r="56" spans="1:40">
       <c r="A56" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B56">
         <v>2021</v>
@@ -5265,7 +5769,7 @@
         <v>0.03279062396300958</v>
       </c>
       <c r="U56" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="V56">
         <v>949.3052672434028</v>
@@ -5292,12 +5796,21 @@
         <v>11.55</v>
       </c>
       <c r="AK56" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL56">
+        <v>13.58133311183971</v>
+      </c>
+      <c r="AM56">
+        <v>0.05054577324515974</v>
+      </c>
+      <c r="AN56">
+        <v>0.09023982152816504</v>
       </c>
     </row>
-    <row r="57" spans="1:37">
+    <row r="57" spans="1:40">
       <c r="A57" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B57">
         <v>2021</v>
@@ -5357,7 +5870,7 @@
         <v>0.09673007167786807</v>
       </c>
       <c r="U57" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="V57">
         <v>893.5097159682545</v>
@@ -5366,12 +5879,21 @@
         <v>38.07213345682112</v>
       </c>
       <c r="AK57" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL57">
+        <v>13.15590528073905</v>
+      </c>
+      <c r="AM57">
+        <v>0.06278703362274143</v>
+      </c>
+      <c r="AN57">
+        <v>0.05993764875465118</v>
       </c>
     </row>
-    <row r="58" spans="1:37">
+    <row r="58" spans="1:40">
       <c r="A58" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B58">
         <v>2021</v>
@@ -5431,7 +5953,7 @@
         <v>0.3934642987562853</v>
       </c>
       <c r="U58" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="V58">
         <v>882.0940728369872</v>
@@ -5458,12 +5980,21 @@
         <v>11.68</v>
       </c>
       <c r="AK58" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL58">
+        <v>13.04578320134821</v>
+      </c>
+      <c r="AM58">
+        <v>0.06866589773164171</v>
+      </c>
+      <c r="AN58">
+        <v>0.05067281814686661</v>
       </c>
     </row>
-    <row r="59" spans="1:37">
+    <row r="59" spans="1:40">
       <c r="A59" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B59">
         <v>2021</v>
@@ -5523,7 +6054,7 @@
         <v>0.8706109919741749</v>
       </c>
       <c r="U59" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="V59">
         <v>1023.424947439589</v>
@@ -5532,12 +6063,21 @@
         <v>33.23121245707989</v>
       </c>
       <c r="AK59" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL59">
+        <v>12.8995256367411</v>
+      </c>
+      <c r="AM59">
+        <v>0.0460793150067598</v>
+      </c>
+      <c r="AN59">
+        <v>0.04326273095989184</v>
       </c>
     </row>
-    <row r="60" spans="1:37">
+    <row r="60" spans="1:40">
       <c r="A60" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B60">
         <v>2021</v>
@@ -5597,7 +6137,7 @@
         <v>0.3570298081156551</v>
       </c>
       <c r="U60" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="V60">
         <v>900.1371462417306</v>
@@ -5606,12 +6146,21 @@
         <v>31.09569174204084</v>
       </c>
       <c r="AK60" t="s">
-        <v>137</v>
+        <v>140</v>
+      </c>
+      <c r="AL60">
+        <v>13.00693269110953</v>
+      </c>
+      <c r="AM60">
+        <v>0.05199691652595256</v>
+      </c>
+      <c r="AN60">
+        <v>0.07888554438000145</v>
       </c>
     </row>
-    <row r="61" spans="1:37">
+    <row r="61" spans="1:40">
       <c r="A61" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B61">
         <v>2021</v>
@@ -5671,7 +6220,7 @@
         <v>0.01247975191913042</v>
       </c>
       <c r="U61" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="V61">
         <v>983.9786798734216</v>
@@ -5680,12 +6229,21 @@
         <v>47.11317056379865</v>
       </c>
       <c r="AK61" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="AL61">
+        <v>13.52994555802979</v>
+      </c>
+      <c r="AM61">
+        <v>0.05475880052151238</v>
+      </c>
+      <c r="AN61">
+        <v>0.05948500651890481</v>
       </c>
     </row>
-    <row r="62" spans="1:37">
+    <row r="62" spans="1:40">
       <c r="A62" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B62">
         <v>2021</v>
@@ -5745,7 +6303,7 @@
         <v>0.3256930677275562</v>
       </c>
       <c r="U62" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="V62">
         <v>1098.745085640204</v>
@@ -5754,12 +6312,21 @@
         <v>44.19797877577607</v>
       </c>
       <c r="AK62" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL62">
+        <v>13.07398752241691</v>
+      </c>
+      <c r="AM62">
+        <v>0.05758938128880323</v>
+      </c>
+      <c r="AN62">
+        <v>0.05873117819167914</v>
       </c>
     </row>
-    <row r="63" spans="1:37">
+    <row r="63" spans="1:40">
       <c r="A63" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B63">
         <v>2021</v>
@@ -5819,7 +6386,7 @@
         <v>0.6006521278059438</v>
       </c>
       <c r="U63" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="V63">
         <v>764.4997277233414</v>
@@ -5828,12 +6395,21 @@
         <v>32.54089320488728</v>
       </c>
       <c r="AK63" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL63">
+        <v>13.09710429413932</v>
+      </c>
+      <c r="AM63">
+        <v>0.05052818201964986</v>
+      </c>
+      <c r="AN63">
+        <v>0.05924503213415085</v>
       </c>
     </row>
-    <row r="64" spans="1:37">
+    <row r="64" spans="1:40">
       <c r="A64" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B64">
         <v>2021</v>
@@ -5893,7 +6469,7 @@
         <v>0.1450882020889139</v>
       </c>
       <c r="U64" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="V64">
         <v>803.7057475140142</v>
@@ -5902,12 +6478,21 @@
         <v>27.11274021966893</v>
       </c>
       <c r="AK64" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL64">
+        <v>13.24391145973004</v>
+      </c>
+      <c r="AM64">
+        <v>0.06105944197331174</v>
+      </c>
+      <c r="AN64">
+        <v>0.05493616775460688</v>
       </c>
     </row>
-    <row r="65" spans="1:37">
+    <row r="65" spans="1:40">
       <c r="A65" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B65">
         <v>2021</v>
@@ -5967,7 +6552,7 @@
         <v>0.3377572774082012</v>
       </c>
       <c r="U65" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="V65">
         <v>1063.046211916041</v>
@@ -5976,12 +6561,21 @@
         <v>38.9204837044727</v>
       </c>
       <c r="AK65" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL65">
+        <v>13.01745709464573</v>
+      </c>
+      <c r="AM65">
+        <v>0.03575766409172619</v>
+      </c>
+      <c r="AN65">
+        <v>0.0308507020356605</v>
       </c>
     </row>
-    <row r="66" spans="1:37">
+    <row r="66" spans="1:40">
       <c r="A66" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B66">
         <v>2021</v>
@@ -6041,7 +6635,7 @@
         <v>0.4400489463672841</v>
       </c>
       <c r="U66" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="V66">
         <v>822.3031030108667</v>
@@ -6050,12 +6644,21 @@
         <v>30.29310339323508</v>
       </c>
       <c r="AK66" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="AL66">
+        <v>12.91531448671196</v>
+      </c>
+      <c r="AM66">
+        <v>0.05662285136501515</v>
+      </c>
+      <c r="AN66">
+        <v>0.0431213941592815</v>
       </c>
     </row>
-    <row r="67" spans="1:37">
+    <row r="67" spans="1:40">
       <c r="A67" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B67">
         <v>2021</v>
@@ -6115,7 +6718,7 @@
         <v>0.2213241118248703</v>
       </c>
       <c r="U67" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="V67">
         <v>1111.657269979408</v>
@@ -6124,12 +6727,21 @@
         <v>39.1643406821656</v>
       </c>
       <c r="AK67" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL67">
+        <v>13.17185170176799</v>
+      </c>
+      <c r="AM67">
+        <v>0.06962839141056965</v>
+      </c>
+      <c r="AN67">
+        <v>0.04539025331104541</v>
       </c>
     </row>
-    <row r="68" spans="1:37">
+    <row r="68" spans="1:40">
       <c r="A68" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B68">
         <v>2021</v>
@@ -6189,7 +6801,7 @@
         <v>0.787773951665784</v>
       </c>
       <c r="U68" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="V68">
         <v>506.3216777862112</v>
@@ -6198,12 +6810,21 @@
         <v>24.43219031160668</v>
       </c>
       <c r="AK68" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="AL68">
+        <v>12.99256287002054</v>
+      </c>
+      <c r="AM68">
+        <v>0.02499115878816457</v>
+      </c>
+      <c r="AN68">
+        <v>0.03277142520334788</v>
       </c>
     </row>
-    <row r="69" spans="1:37">
+    <row r="69" spans="1:40">
       <c r="A69" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B69">
         <v>2021</v>
@@ -6263,7 +6884,7 @@
         <v>0.3740539465603376</v>
       </c>
       <c r="U69" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="V69">
         <v>1253.203813638226</v>
@@ -6290,12 +6911,21 @@
         <v>12.15</v>
       </c>
       <c r="AK69" t="s">
-        <v>137</v>
+        <v>140</v>
+      </c>
+      <c r="AL69">
+        <v>13.18022026898772</v>
+      </c>
+      <c r="AM69">
+        <v>0.05935430463576157</v>
+      </c>
+      <c r="AN69">
+        <v>0.06746688741721853</v>
       </c>
     </row>
-    <row r="70" spans="1:37">
+    <row r="70" spans="1:40">
       <c r="A70" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B70">
         <v>2021</v>
@@ -6355,7 +6985,7 @@
         <v>0.03131271712601347</v>
       </c>
       <c r="U70" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="V70">
         <v>853.9952160502883</v>
@@ -6364,12 +6994,21 @@
         <v>29.40343024251424</v>
       </c>
       <c r="AK70" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL70">
+        <v>13.03387597483447</v>
+      </c>
+      <c r="AM70">
+        <v>0.04840898808626149</v>
+      </c>
+      <c r="AN70">
+        <v>0.05240536872266625</v>
       </c>
     </row>
-    <row r="71" spans="1:37">
+    <row r="71" spans="1:40">
       <c r="A71" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B71">
         <v>2021</v>
@@ -6429,7 +7068,7 @@
         <v>0.05760472608409373</v>
       </c>
       <c r="U71" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="V71">
         <v>944.8092893964713</v>
@@ -6438,12 +7077,21 @@
         <v>38.32250644830829</v>
       </c>
       <c r="AK71" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL71">
+        <v>12.94601314316327</v>
+      </c>
+      <c r="AM71">
+        <v>0.0765721733463669</v>
+      </c>
+      <c r="AN71">
+        <v>0.06182795698924731</v>
       </c>
     </row>
-    <row r="72" spans="1:37">
+    <row r="72" spans="1:40">
       <c r="A72" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B72">
         <v>2021</v>
@@ -6503,7 +7151,7 @@
         <v>0.1606751885635589</v>
       </c>
       <c r="U72" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="V72">
         <v>770.2103987340594</v>
@@ -6530,12 +7178,21 @@
         <v>14.98</v>
       </c>
       <c r="AK72" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL72">
+        <v>12.97490086974356</v>
+      </c>
+      <c r="AM72">
+        <v>0.03620321098831127</v>
+      </c>
+      <c r="AN72">
+        <v>0.04716423341065174</v>
       </c>
     </row>
-    <row r="73" spans="1:37">
+    <row r="73" spans="1:40">
       <c r="A73" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B73">
         <v>2021</v>
@@ -6595,7 +7252,7 @@
         <v>0.2128288603880719</v>
       </c>
       <c r="U73" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="V73">
         <v>856.1929290862171</v>
@@ -6640,12 +7297,21 @@
         <v>12.12</v>
       </c>
       <c r="AK73" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="AL73">
+        <v>12.72730152711267</v>
+      </c>
+      <c r="AM73">
+        <v>0.03211175616835994</v>
+      </c>
+      <c r="AN73">
+        <v>0.04345065312046444</v>
       </c>
     </row>
-    <row r="74" spans="1:37">
+    <row r="74" spans="1:40">
       <c r="A74" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B74">
         <v>2021</v>
@@ -6705,7 +7371,7 @@
         <v>0.1618774256229045</v>
       </c>
       <c r="U74" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="V74">
         <v>897.9587811955112</v>
@@ -6714,12 +7380,21 @@
         <v>24.86530660158182</v>
       </c>
       <c r="AK74" t="s">
-        <v>137</v>
+        <v>140</v>
+      </c>
+      <c r="AL74">
+        <v>13.17474193892818</v>
+      </c>
+      <c r="AM74">
+        <v>0.05724456417163749</v>
+      </c>
+      <c r="AN74">
+        <v>0.08572253223013275</v>
       </c>
     </row>
-    <row r="75" spans="1:37">
+    <row r="75" spans="1:40">
       <c r="A75" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B75">
         <v>2021</v>
@@ -6779,7 +7454,7 @@
         <v>0.2281768184212609</v>
       </c>
       <c r="U75" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="V75">
         <v>846.7248752704564</v>
@@ -6806,12 +7481,21 @@
         <v>13.88</v>
       </c>
       <c r="AK75" t="s">
-        <v>137</v>
+        <v>140</v>
+      </c>
+      <c r="AL75">
+        <v>13.163310469418</v>
+      </c>
+      <c r="AM75">
+        <v>0.04488583286114643</v>
+      </c>
+      <c r="AN75">
+        <v>0.08614220738449291</v>
       </c>
     </row>
-    <row r="76" spans="1:37">
+    <row r="76" spans="1:40">
       <c r="A76" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B76">
         <v>2021</v>
@@ -6871,7 +7555,7 @@
         <v>0.170819678009309</v>
       </c>
       <c r="U76" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="V76">
         <v>774.1105428905702</v>
@@ -6880,12 +7564,21 @@
         <v>38.06896615364766</v>
       </c>
       <c r="AK76" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL76">
+        <v>13.06684368897548</v>
+      </c>
+      <c r="AM76">
+        <v>0.07543566483647648</v>
+      </c>
+      <c r="AN76">
+        <v>0.05092703111323308</v>
       </c>
     </row>
-    <row r="77" spans="1:37">
+    <row r="77" spans="1:40">
       <c r="A77" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B77">
         <v>2021</v>
@@ -6945,7 +7638,7 @@
         <v>0.01452917032973744</v>
       </c>
       <c r="U77" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="V77">
         <v>680.4358224647484</v>
@@ -6954,12 +7647,21 @@
         <v>38.6226721430202</v>
       </c>
       <c r="AK77" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL77">
+        <v>13.52071364569113</v>
+      </c>
+      <c r="AM77">
+        <v>0.07397959183673469</v>
+      </c>
+      <c r="AN77">
+        <v>0.02678571428571427</v>
       </c>
     </row>
-    <row r="78" spans="1:37">
+    <row r="78" spans="1:40">
       <c r="A78" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B78">
         <v>2021</v>
@@ -7019,7 +7721,7 @@
         <v>0.1450333170256641</v>
       </c>
       <c r="U78" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="V78">
         <v>1277.269487254854</v>
@@ -7028,12 +7730,21 @@
         <v>27.1050694237609</v>
       </c>
       <c r="AK78" t="s">
-        <v>137</v>
+        <v>140</v>
+      </c>
+      <c r="AL78">
+        <v>13.51384398867746</v>
+      </c>
+      <c r="AM78">
+        <v>0.05573911794282431</v>
+      </c>
+      <c r="AN78">
+        <v>0.06335296652779775</v>
       </c>
     </row>
-    <row r="79" spans="1:37">
+    <row r="79" spans="1:40">
       <c r="A79" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B79">
         <v>2021</v>
@@ -7093,7 +7804,7 @@
         <v>0.1876511154093521</v>
       </c>
       <c r="U79" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="V79">
         <v>914.3673153226621</v>
@@ -7120,7 +7831,16 @@
         <v>14.33</v>
       </c>
       <c r="AK79" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL79">
+        <v>13.08390998180796</v>
+      </c>
+      <c r="AM79">
+        <v>0.04518859703722145</v>
+      </c>
+      <c r="AN79">
+        <v>0.04705589443545374</v>
       </c>
     </row>
   </sheetData>
